--- a/biology/Botanique/Erythrococca_hispida/Erythrococca_hispida.xlsx
+++ b/biology/Botanique/Erythrococca_hispida/Erythrococca_hispida.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Erythrococca hispida  (Pax) Prain est une espèce de plantes à fleurs de la famille des Euphorbiacées et du genre Erythrococca. C'est un arbre endémique du Cameroun.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Arbuste de 6-8 pieds de haut; rameaux hispides avec des poils jaunes; écailles de bourgeons persistantes. Feuilles courtes, pétiolées, membraneuses, oblongues, très rarement ovales, acuminées, à base arrondie ou à large cunéiforme, à marge légèrement distanciée, habituellement de 5-8 po de long, ovée seulement de 2-3 po de long, 2 po de largeur, vert moyen à vert foncé, plus clairs sous ses pieds, hispide sur les nerfs, plus dense hispide sur les nerfs en dessous, finement verruqueux sur les deux faces; pétiole habituellement hispide, 1 / 4- 1/3 po de long; stipules non modifiées, hyaline-scarieuse. Fleurs petites, en grappes pédonculées; pédoncules minces, hispides, 3 / 4-1 po de long; pédicelles glabres, mâles 1/4 po de long, femelles 1/6 po de long. Calice mâle vert, glabre, globuleux en bouton; lobes 4, membraneux. Étamines 27; extérieur 10, le reste central; filaments beaucoup plus courts que les anthères; glandes minuscules, hirsutes, rhomboïdes, toutes inter-staminales. Calice femelle profondément 2-lobé. Ovaire glabre, 2-loculaire; stigmates linéaires-ovales, d'abord divaricés, à la longue recourbés, lisses, au sommet d'un style cylindrique distinct aussi long qu'eux-mêmes. Disque peu profond-urceolate, largement et également 2-lobé. Capsule 2-coccous, didymous; cocci 1/3 po de diamètre. Graines avec un arille rouge et un testa foveolate-réticulé.
 </t>
@@ -542,7 +556,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette plante est endémique du Cameroun, dans la ville de Buéa.
 </t>
@@ -573,7 +589,9 @@
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les jeunes feuilles sont consommées avec du sel végétal et de la banane cuite pour traiter les problèmes gastro-intestinaux. 
 Les feuilles sont broyées avec du sel et appliquées aux scarifications pour traiter les douleurs rénales.
